--- a/wm_items_dic.xlsx
+++ b/wm_items_dic.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lx\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69968F2-3DE7-46DB-AA78-F4D33291843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{3B78B720-C986-4414-A5C8-B1EF7C4F209D}"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="wm_items_dic" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="678">
   <si>
     <t>id</t>
   </si>
@@ -1588,6 +1571,18 @@
     <t>zephyr_prime_blueprint</t>
   </si>
   <si>
+    <t>Zephyr Prime System</t>
+  </si>
+  <si>
+    <t>鸟姐系统zephyr系统</t>
+  </si>
+  <si>
+    <t>Zephyr Prime 系统</t>
+  </si>
+  <si>
+    <t>zephyr_prime_system</t>
+  </si>
+  <si>
     <t>Zephyr Prime Neuroptics</t>
   </si>
   <si>
@@ -1612,16 +1607,64 @@
     <t>zephyr_prime_chassis</t>
   </si>
   <si>
-    <t>Zephyr Prime Systems</t>
-  </si>
-  <si>
-    <t>鸟姐系统zephyr系统</t>
-  </si>
-  <si>
-    <t>Zephyr Prime 系统</t>
-  </si>
-  <si>
-    <t>zephyr_prime_systems</t>
+    <t>Titania Prime Set</t>
+  </si>
+  <si>
+    <t>泰坦pTitaniap</t>
+  </si>
+  <si>
+    <t>Titania Prime 一套</t>
+  </si>
+  <si>
+    <t>titania_prime_set</t>
+  </si>
+  <si>
+    <t>Titania Prime Blueprint</t>
+  </si>
+  <si>
+    <t>泰坦蓝图泰坦总图Titania蓝图Titania总体</t>
+  </si>
+  <si>
+    <t>Titania Prime 蓝图</t>
+  </si>
+  <si>
+    <t>titania_prime_blueprint</t>
+  </si>
+  <si>
+    <t>Titania Prime Neuroptics</t>
+  </si>
+  <si>
+    <t>泰坦头Titania头</t>
+  </si>
+  <si>
+    <t>Titania Prime  头部神经光元</t>
+  </si>
+  <si>
+    <t>titania_prime_neuroptics</t>
+  </si>
+  <si>
+    <t>Titania Prime Chassis</t>
+  </si>
+  <si>
+    <t>泰坦机体Titania机体</t>
+  </si>
+  <si>
+    <t>Titania Prime 机体</t>
+  </si>
+  <si>
+    <t>titania_prime_chassis</t>
+  </si>
+  <si>
+    <t>Titania Prime Systems</t>
+  </si>
+  <si>
+    <t>泰坦系统Titania系统</t>
+  </si>
+  <si>
+    <t>Titania Prime 系统</t>
+  </si>
+  <si>
+    <t>titania_prime_systems</t>
   </si>
   <si>
     <t>warframe_prime_mods</t>
@@ -1964,55 +2007,415 @@
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baza Prime Set</t>
   </si>
   <si>
     <t>苍鹰p苍鹰P苍鹰Prime苍鹰prime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baza Prime Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苍鹰 Prime 一套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>baza_prime_set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>Arcane Energize</t>
+  </si>
+  <si>
+    <t>充沛赋能</t>
+  </si>
+  <si>
+    <t>arcane_energize</t>
+  </si>
+  <si>
+    <t>Arcane Grace</t>
+  </si>
+  <si>
+    <t>优雅赋能</t>
+  </si>
+  <si>
+    <t>arcane_grace</t>
+  </si>
+  <si>
+    <t>Arcane Guardian</t>
+  </si>
+  <si>
+    <t>保卫者赋能</t>
+  </si>
+  <si>
+    <t>arcane_guardian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2020,9 +2423,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2031,17 +2676,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2090,7 +2779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2123,26 +2812,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2175,23 +2847,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2333,34 +2988,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83E968F-01B6-42DB-A7EA-AC10E1B81980}">
-  <dimension ref="A1:F169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2400,7 +3050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2420,7 +3070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2440,7 +3090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2460,7 +3110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2480,7 +3130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2500,7 +3150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2520,7 +3170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2540,7 +3190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2560,7 +3210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2580,7 +3230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2600,7 +3250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2620,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2640,7 +3290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2660,7 +3310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2680,7 +3330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2700,7 +3350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2720,7 +3370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2740,7 +3390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2760,7 +3410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2780,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2800,7 +3450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2820,7 +3470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2840,7 +3490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2860,7 +3510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2880,7 +3530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2900,7 +3550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2920,7 +3570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2940,7 +3590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2960,7 +3610,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2980,7 +3630,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3000,7 +3650,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3020,7 +3670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3040,7 +3690,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3060,7 +3710,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3080,7 +3730,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3100,7 +3750,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3120,7 +3770,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3140,7 +3790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3160,7 +3810,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3180,7 +3830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3200,7 +3850,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3220,7 +3870,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3240,7 +3890,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3260,7 +3910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3280,7 +3930,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3300,7 +3950,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3320,7 +3970,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3340,7 +3990,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3360,7 +4010,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3380,7 +4030,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customHeight="1" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3400,7 +4050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3420,7 +4070,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3440,7 +4090,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3460,7 +4110,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3480,7 +4130,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customHeight="1" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3500,7 +4150,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3520,7 +4170,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customHeight="1" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3540,7 +4190,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customHeight="1" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3560,7 +4210,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customHeight="1" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3580,7 +4230,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3600,7 +4250,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3620,7 +4270,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3640,7 +4290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3660,7 +4310,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3680,7 +4330,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3700,7 +4350,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3720,7 +4370,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3740,7 +4390,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3760,7 +4410,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3780,7 +4430,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3800,7 +4450,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3820,7 +4470,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3840,7 +4490,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3860,7 +4510,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3880,7 +4530,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3900,7 +4550,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" customHeight="1" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3920,7 +4570,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" customHeight="1" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3940,7 +4590,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" customHeight="1" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3960,7 +4610,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" customHeight="1" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3980,7 +4630,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" customHeight="1" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4000,7 +4650,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" customHeight="1" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4020,7 +4670,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" customHeight="1" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4040,7 +4690,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" customHeight="1" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4060,7 +4710,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" customHeight="1" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4080,7 +4730,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" customHeight="1" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4100,7 +4750,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" customHeight="1" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4120,7 +4770,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" customHeight="1" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4140,7 +4790,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" customHeight="1" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4160,7 +4810,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" customHeight="1" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4180,7 +4830,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" customHeight="1" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4200,7 +4850,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" customHeight="1" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4220,7 +4870,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" customHeight="1" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4240,7 +4890,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" customHeight="1" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4260,7 +4910,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" customHeight="1" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4280,7 +4930,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" customHeight="1" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4300,7 +4950,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" customHeight="1" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4320,7 +4970,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" customHeight="1" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4340,7 +4990,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" customHeight="1" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4360,7 +5010,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" customHeight="1" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4380,7 +5030,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" customHeight="1" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4400,7 +5050,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" customHeight="1" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4420,7 +5070,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" customHeight="1" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4440,7 +5090,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" customHeight="1" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4460,7 +5110,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" customHeight="1" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4480,7 +5130,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" customHeight="1" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4500,7 +5150,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" customHeight="1" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4520,7 +5170,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" customHeight="1" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4540,7 +5190,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" customHeight="1" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4560,7 +5210,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" customHeight="1" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4580,7 +5230,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" customHeight="1" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4600,7 +5250,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" customHeight="1" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4620,7 +5270,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" customHeight="1" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4640,7 +5290,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" customHeight="1" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4660,7 +5310,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" customHeight="1" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4680,7 +5330,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" customHeight="1" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4700,7 +5350,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" customHeight="1" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4720,7 +5370,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" customHeight="1" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4740,7 +5390,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" customHeight="1" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4760,7 +5410,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" customHeight="1" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4780,7 +5430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" customHeight="1" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4800,7 +5450,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" customHeight="1" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4820,7 +5470,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" customHeight="1" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4840,7 +5490,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" customHeight="1" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4860,7 +5510,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" customHeight="1" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4880,7 +5530,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" customHeight="1" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4900,7 +5550,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" customHeight="1" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4920,7 +5570,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" customHeight="1" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4940,7 +5590,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" customHeight="1" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4960,7 +5610,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" customHeight="1" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4980,7 +5630,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" customHeight="1" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5000,7 +5650,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" customHeight="1" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5020,7 +5670,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" customHeight="1" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5040,138 +5690,138 @@
         <v>529</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" customHeight="1" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
         <v>530</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>531</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>532</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>533</v>
       </c>
-      <c r="F135" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" customHeight="1" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" t="s">
         <v>535</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>536</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>537</v>
       </c>
-      <c r="F136" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" customHeight="1" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
+        <v>538</v>
+      </c>
+      <c r="D137" t="s">
         <v>539</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>540</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>541</v>
       </c>
-      <c r="F137" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" customHeight="1" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
+        <v>542</v>
+      </c>
+      <c r="D138" t="s">
         <v>543</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>544</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>545</v>
       </c>
-      <c r="F138" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" customHeight="1" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
+        <v>546</v>
+      </c>
+      <c r="D139" t="s">
         <v>547</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>548</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>549</v>
       </c>
-      <c r="F139" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" customHeight="1" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>550</v>
+      </c>
+      <c r="C140" t="s">
         <v>551</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>552</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>553</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>554</v>
       </c>
-      <c r="F140" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" customHeight="1" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C141" t="s">
+        <v>555</v>
+      </c>
+      <c r="D141" t="s">
         <v>556</v>
-      </c>
-      <c r="D141" t="s">
-        <v>557</v>
       </c>
       <c r="E141" t="s">
         <v>557</v>
@@ -5180,12 +5830,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" customHeight="1" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C142" t="s">
         <v>559</v>
@@ -5200,12 +5850,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" customHeight="1" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C143" t="s">
         <v>563</v>
@@ -5214,18 +5864,18 @@
         <v>564</v>
       </c>
       <c r="E143" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F143" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:6">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C144" t="s">
         <v>567</v>
@@ -5234,528 +5884,691 @@
         <v>568</v>
       </c>
       <c r="E144" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F144" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:6">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C145" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E145" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F145" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:6">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C146" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D146" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E146" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F146" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:6">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C147" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D147" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E147" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F147" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:6">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C148" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D148" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E148" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F148" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:6">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C149" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D149" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E149" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F149" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:6">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C150" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D150" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E150" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F150" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:6">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C151" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D151" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F151" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:6">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C152" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D152" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E152" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F152" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:6">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C153" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D153" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E153" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F153" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:6">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C154" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D154" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="E154" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F154" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:6">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C155" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D155" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E155" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F155" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:6">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C156" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D156" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E156" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F156" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:6">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C157" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D157" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E157" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F157" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:6">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C158" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D158" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E158" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F158" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:6">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C159" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D159" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E159" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F159" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:6">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C160" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D160" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E160" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F160" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:6">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C161" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D161" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="E161" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="F161" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:6">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C162" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D162" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E162" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F162" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:6">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C163" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D163" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E163" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F163" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:6">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C164" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D164" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E164" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F164" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:6">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C165" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D165" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E165" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F165" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:6">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C166" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D166" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E166" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F166" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:6">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C167" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D167" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E167" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F167" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:6">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C168" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D168" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E168" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F168" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:6">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="C169" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D169" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E169" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F169" t="s">
-        <v>647</v>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:6">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>586</v>
+      </c>
+      <c r="C170" t="s">
+        <v>652</v>
+      </c>
+      <c r="D170" t="s">
+        <v>653</v>
+      </c>
+      <c r="E170" t="s">
+        <v>653</v>
+      </c>
+      <c r="F170" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:6">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>586</v>
+      </c>
+      <c r="C171" t="s">
+        <v>655</v>
+      </c>
+      <c r="D171" t="s">
+        <v>656</v>
+      </c>
+      <c r="E171" t="s">
+        <v>656</v>
+      </c>
+      <c r="F171" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:6">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>586</v>
+      </c>
+      <c r="C172" t="s">
+        <v>658</v>
+      </c>
+      <c r="D172" t="s">
+        <v>659</v>
+      </c>
+      <c r="E172" t="s">
+        <v>659</v>
+      </c>
+      <c r="F172" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:6">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>586</v>
+      </c>
+      <c r="C173" t="s">
+        <v>660</v>
+      </c>
+      <c r="D173" t="s">
+        <v>661</v>
+      </c>
+      <c r="E173" t="s">
+        <v>661</v>
+      </c>
+      <c r="F173" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:6">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>663</v>
+      </c>
+      <c r="C174" t="s">
+        <v>664</v>
+      </c>
+      <c r="D174" t="s">
+        <v>665</v>
+      </c>
+      <c r="E174" t="s">
+        <v>666</v>
+      </c>
+      <c r="F174" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:6">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>668</v>
+      </c>
+      <c r="C175" t="s">
+        <v>669</v>
+      </c>
+      <c r="D175" t="s">
+        <v>670</v>
+      </c>
+      <c r="E175" t="s">
+        <v>670</v>
+      </c>
+      <c r="F175" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:6">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>668</v>
+      </c>
+      <c r="C176" t="s">
+        <v>672</v>
+      </c>
+      <c r="D176" t="s">
+        <v>673</v>
+      </c>
+      <c r="E176" t="s">
+        <v>673</v>
+      </c>
+      <c r="F176" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:6">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>668</v>
+      </c>
+      <c r="C177" t="s">
+        <v>675</v>
+      </c>
+      <c r="D177" t="s">
+        <v>676</v>
+      </c>
+      <c r="E177" t="s">
+        <v>676</v>
+      </c>
+      <c r="F177" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE3594A-07E1-4875-A8FE-EFC8906EC4C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wm_items_dic.xlsx
+++ b/wm_items_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="687">
   <si>
     <t>id</t>
   </si>
@@ -1610,7 +1610,7 @@
     <t>Titania Prime Set</t>
   </si>
   <si>
-    <t>泰坦pTitaniap</t>
+    <t>蝶妹pTitaniap</t>
   </si>
   <si>
     <t>Titania Prime 一套</t>
@@ -1622,7 +1622,7 @@
     <t>Titania Prime Blueprint</t>
   </si>
   <si>
-    <t>泰坦蓝图泰坦总图Titania蓝图Titania总体</t>
+    <t>蝶妹蓝图蝶妹总图Titania蓝图Titania总体</t>
   </si>
   <si>
     <t>Titania Prime 蓝图</t>
@@ -1634,7 +1634,7 @@
     <t>Titania Prime Neuroptics</t>
   </si>
   <si>
-    <t>泰坦头Titania头</t>
+    <t>蝶妹头Titania头</t>
   </si>
   <si>
     <t>Titania Prime  头部神经光元</t>
@@ -1646,7 +1646,7 @@
     <t>Titania Prime Chassis</t>
   </si>
   <si>
-    <t>泰坦机体Titania机体</t>
+    <t>蝶妹机体Titania机体</t>
   </si>
   <si>
     <t>Titania Prime 机体</t>
@@ -1658,7 +1658,7 @@
     <t>Titania Prime Systems</t>
   </si>
   <si>
-    <t>泰坦系统Titania系统</t>
+    <t>蝶妹系统Titania系统</t>
   </si>
   <si>
     <t>Titania Prime 系统</t>
@@ -2049,6 +2049,33 @@
   </si>
   <si>
     <t>arcane_guardian</t>
+  </si>
+  <si>
+    <t>Arcane Acceleration</t>
+  </si>
+  <si>
+    <t>加速赋能</t>
+  </si>
+  <si>
+    <t>arcane_acceleration</t>
+  </si>
+  <si>
+    <t>Arcane Aegis</t>
+  </si>
+  <si>
+    <t>神盾赋能</t>
+  </si>
+  <si>
+    <t>cacane_aegis</t>
+  </si>
+  <si>
+    <t>Spoiled Strike</t>
+  </si>
+  <si>
+    <t>腐坏打击</t>
+  </si>
+  <si>
+    <t>spoiled_strike</t>
   </si>
 </sst>
 </file>
@@ -2056,12 +2083,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2071,9 +2098,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2084,8 +2111,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2093,9 +2121,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2124,7 +2189,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2133,36 +2213,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,36 +2240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2230,43 +2250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,31 +2274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2320,25 +2286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2356,13 +2316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,13 +2358,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,19 +2418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,49 +2444,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2489,11 +2472,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2516,8 +2506,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2526,148 +2546,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2994,10 +3014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -6548,6 +6568,66 @@
       </c>
       <c r="F177" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:6">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>668</v>
+      </c>
+      <c r="C178" t="s">
+        <v>678</v>
+      </c>
+      <c r="D178" t="s">
+        <v>679</v>
+      </c>
+      <c r="E178" t="s">
+        <v>679</v>
+      </c>
+      <c r="F178" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:6">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>668</v>
+      </c>
+      <c r="C179" t="s">
+        <v>681</v>
+      </c>
+      <c r="D179" t="s">
+        <v>682</v>
+      </c>
+      <c r="E179" t="s">
+        <v>682</v>
+      </c>
+      <c r="F179" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:6">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>586</v>
+      </c>
+      <c r="C180" t="s">
+        <v>684</v>
+      </c>
+      <c r="D180" t="s">
+        <v>685</v>
+      </c>
+      <c r="E180" t="s">
+        <v>685</v>
+      </c>
+      <c r="F180" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
